--- a/Power Sector.xlsx
+++ b/Power Sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BCE4F-8E8A-4053-B395-14714792DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7AD652-6156-4899-A780-E9F52EC3D9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="49">
   <si>
     <t>Scenario</t>
   </si>
@@ -154,18 +154,6 @@
     <t>Share of Geothermal in total renewable generation</t>
   </si>
   <si>
-    <t>Share of total electricity generation from non-zero carbon sources</t>
-  </si>
-  <si>
-    <t>Share of total electricity generation from zero carbon sources</t>
-  </si>
-  <si>
-    <t>Absolute gross CO2 emissions reduction rate (relative to 2020)</t>
-  </si>
-  <si>
-    <t>Share of total electricity generation from renewables</t>
-  </si>
-  <si>
     <t>Phase-out of coal power plants (year)</t>
   </si>
   <si>
@@ -178,13 +166,19 @@
     <t>Share of capacity additions from zero carbon sources</t>
   </si>
   <si>
-    <t>Share of total electricity investment in zero carbon technologies</t>
+    <t>Share of total electricity investment in coal Plants</t>
   </si>
   <si>
-    <t>Share of total electricity investment in transmission and distribution technologies</t>
+    <t>Share of renewables in total electricity generation</t>
   </si>
   <si>
-    <t>Share of total electricity investment in coal Plants</t>
+    <t>Share of non-zero carbon sources in total electricity generation</t>
+  </si>
+  <si>
+    <t>Share of zero-carbon sources in total electricity generation</t>
+  </si>
+  <si>
+    <t>Absolute gross CO2 emissions reduction rate, compared to 2020</t>
   </si>
 </sst>
 </file>
@@ -247,7 +241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,6 +301,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -314,14 +312,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5782,10 +5780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBF3C3B-240C-4F7F-A1B9-C9337BE32FB4}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5793,24 +5791,25 @@
     <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+    <row r="1" spans="1:14" ht="100.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5825,20 +5824,20 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="8">
         <v>2020</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>2030</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>2040</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>2050</v>
       </c>
       <c r="F3" s="4"/>
@@ -5850,18 +5849,18 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="11">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0.99299999999999999</v>
       </c>
       <c r="F4" s="4"/>
@@ -5873,20 +5872,20 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11">
         <v>0.7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>0.17</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <v>0.04</v>
       </c>
       <c r="F5" s="4"/>
@@ -5898,20 +5897,20 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="8">
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11">
         <v>0.37</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>0.85</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>0.96</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="11">
         <v>0.96</v>
       </c>
       <c r="F6" s="4"/>
@@ -5923,64 +5922,72 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="8">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="11">
         <v>0.3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>0.83</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>0.95</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <v>0.95</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11">
         <v>0.74</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="11">
         <v>0.98</v>
       </c>
-      <c r="D8" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -5990,14 +5997,16 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2040</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -6007,22 +6016,12 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -6032,16 +6031,12 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2040</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -6051,7 +6046,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6066,7 +6061,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6081,40 +6076,10 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
